--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,133 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -802,7 +809,7 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>400</v>
@@ -811,60 +818,66 @@
         <v>400</v>
       </c>
       <c r="N9" s="3">
+        <v>400</v>
+      </c>
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1051,14 +1074,17 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1500</v>
       </c>
       <c r="G17" s="3">
         <v>1500</v>
       </c>
       <c r="H17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,11 +1221,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1202,72 +1236,78 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1304,102 +1344,111 @@
       <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>100</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,23 +1632,26 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>300</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1601,25 +1662,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,11 +1785,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1730,72 +1800,78 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2049,14 +2139,17 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,43 +2157,46 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2137,22 +2233,25 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -2161,34 +2260,37 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>300</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2225,14 +2327,17 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2243,7 +2348,7 @@
         <v>2400</v>
       </c>
       <c r="F47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="3">
         <v>2600</v>
@@ -2252,31 +2357,34 @@
         <v>2600</v>
       </c>
       <c r="I47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J47" s="3">
         <v>3800</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4000</v>
       </c>
       <c r="K47" s="3">
         <v>4000</v>
       </c>
       <c r="L47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M47" s="3">
         <v>4400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2392,7 @@
         <v>10700</v>
       </c>
       <c r="E48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="F48" s="3">
         <v>10900</v>
@@ -2293,34 +2401,37 @@
         <v>10900</v>
       </c>
       <c r="H48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I48" s="3">
         <v>20400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>21100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>21300</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1600</v>
       </c>
       <c r="F52" s="3">
         <v>1600</v>
       </c>
       <c r="G52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H52" s="3">
         <v>10400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1000</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
       <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E54" s="3">
         <v>18600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>28300</v>
       </c>
       <c r="K54" s="3">
         <v>28300</v>
       </c>
       <c r="L54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="M54" s="3">
         <v>30000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,43 +2759,46 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="O57" s="3">
+        <v>300</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2681,16 +2815,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -2701,58 +2835,64 @@
       <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>300</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4800</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2789,14 +2929,17 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
+      <c r="O60" s="3">
+        <v>0</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -2813,39 +2956,42 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>6000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>6500</v>
       </c>
       <c r="N61" s="3">
         <v>6500</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -2854,20 +3000,20 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>6200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12400</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3203,14 +3371,17 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>4</v>
+      <c r="O70" s="3">
+        <v>0</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E76" s="3">
         <v>15900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3643,7 +3842,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -3666,14 +3865,17 @@
       <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
+      <c r="O83" s="3">
+        <v>200</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-400</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,19 +4174,20 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3975,11 +4196,11 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -3990,16 +4211,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,13 +4579,13 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
@@ -4360,16 +4606,19 @@
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4406,54 +4655,60 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,152 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>400</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -812,72 +825,84 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>400</v>
       </c>
       <c r="O9" s="3">
+        <v>400</v>
+      </c>
+      <c r="P9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,14 +1069,20 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,14 +1122,20 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1233,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1248,66 +1315,78 @@
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1336,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1347,108 +1426,126 @@
       <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-200</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1644,20 +1765,20 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>300</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -1665,25 +1786,31 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1797,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1812,66 +1951,78 @@
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2225,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
         <v>3200</v>
       </c>
       <c r="F41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2142,61 +2321,73 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2236,40 +2427,46 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -2281,16 +2478,22 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2330,108 +2533,126 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="F47" s="3">
         <v>2400</v>
       </c>
       <c r="G47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I47" s="3">
         <v>2600</v>
       </c>
       <c r="J47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>5500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="E48" s="3">
         <v>10700</v>
       </c>
       <c r="F48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="G48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="H48" s="3">
         <v>10900</v>
       </c>
       <c r="I48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K48" s="3">
         <v>20400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>16000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>20900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>21100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>21300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2471,14 +2692,20 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F54" s="3">
         <v>17900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>18600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>21000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>21200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>26400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>27000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>28100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>28300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>28300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>30000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>30700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>30900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +3009,63 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2818,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
@@ -2838,61 +3105,73 @@
       <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2932,94 +3211,106 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>6000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>6200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>11000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>12300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12400</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3374,14 +3709,20 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F76" s="3">
         <v>15400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>15900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>17100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>16700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>17300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>17200</v>
       </c>
       <c r="K76" s="3">
         <v>17300</v>
       </c>
       <c r="L76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M76" s="3">
+        <v>17300</v>
+      </c>
+      <c r="N76" s="3">
         <v>17700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>18500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>18400</v>
       </c>
       <c r="O76" s="3">
         <v>18500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>18400</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>18500</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3845,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -3868,14 +4265,20 @@
       <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,38 +4614,40 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -4214,16 +4655,22 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4325,46 +4784,52 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>3200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>600</v>
-      </c>
-      <c r="N94" s="3">
-        <v>400</v>
       </c>
       <c r="O94" s="3">
         <v>600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>600</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,19 +5055,25 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4591,7 +5082,7 @@
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
@@ -4609,16 +5100,22 @@
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4658,57 +5155,69 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>400</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -831,78 +845,90 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
       </c>
       <c r="Q9" s="3">
+        <v>400</v>
+      </c>
+      <c r="R9" s="3">
+        <v>400</v>
+      </c>
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1062,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1075,14 +1115,20 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,14 +1174,20 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="O17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1303,16 +1371,16 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1321,72 +1389,84 @@
         <v>100</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>7700</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1421,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1432,120 +1512,138 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-200</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
       </c>
       <c r="P24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-400</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-400</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,13 +1872,19 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1771,20 +1893,20 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>300</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1792,25 +1914,31 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1939,16 +2079,16 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1957,72 +2097,84 @@
         <v>-100</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>3200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>2500</v>
       </c>
       <c r="G41" s="3">
         <v>3200</v>
       </c>
       <c r="H41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2327,67 +2507,79 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2433,46 +2625,52 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2484,16 +2682,22 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>400</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2539,14 +2743,20 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2557,102 +2767,114 @@
         <v>1300</v>
       </c>
       <c r="F47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="G47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="H47" s="3">
         <v>2400</v>
       </c>
       <c r="I47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K47" s="3">
         <v>2600</v>
       </c>
       <c r="L47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N47" s="3">
         <v>3800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E48" s="3">
         <v>10600</v>
       </c>
-      <c r="E48" s="3">
-        <v>10700</v>
-      </c>
       <c r="F48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="G48" s="3">
         <v>10700</v>
       </c>
       <c r="H48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="I48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="J48" s="3">
         <v>10900</v>
       </c>
       <c r="K48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="L48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="M48" s="3">
         <v>20400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>16000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>20800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>20900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>21100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>21300</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2698,14 +2920,20 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>5800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>17900</v>
+      </c>
+      <c r="F54" s="3">
         <v>18100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>17600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>17900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>18600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>26400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>27000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>28100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>28300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>28300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>30000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>30700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>30900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,66 +3271,74 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3091,19 +3359,19 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -3111,14 +3379,20 @@
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3126,52 +3400,58 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="F59" s="3">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="G59" s="3">
-        <v>2300</v>
+        <v>300</v>
       </c>
       <c r="H59" s="3">
-        <v>3400</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4800</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3217,106 +3497,118 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
+        <v>100</v>
+      </c>
+      <c r="L61" s="3">
+        <v>100</v>
+      </c>
+      <c r="M61" s="3">
         <v>6000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>6200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>12300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12400</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3715,14 +4051,20 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F76" s="3">
         <v>14600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>15400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>15900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>16900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>17100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>17300</v>
-      </c>
-      <c r="L76" s="3">
-        <v>17200</v>
       </c>
       <c r="M76" s="3">
         <v>17300</v>
       </c>
       <c r="N76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="O76" s="3">
+        <v>17300</v>
+      </c>
+      <c r="P76" s="3">
         <v>17700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>18500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>18400</v>
       </c>
       <c r="Q76" s="3">
         <v>18500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>18400</v>
+      </c>
+      <c r="S76" s="3">
+        <v>18500</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4248,10 +4646,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4271,14 +4669,20 @@
       <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,44 +5056,46 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4661,16 +5103,22 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,52 +5244,58 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>3200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>600</v>
-      </c>
-      <c r="P94" s="3">
-        <v>400</v>
       </c>
       <c r="Q94" s="3">
         <v>600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>400</v>
+      </c>
+      <c r="S94" s="3">
+        <v>600</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,25 +5547,31 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5088,7 +5580,7 @@
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
@@ -5106,16 +5598,22 @@
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5161,63 +5659,75 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>9000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -851,7 +857,7 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
@@ -860,75 +866,81 @@
         <v>400</v>
       </c>
       <c r="S9" s="3">
+        <v>400</v>
+      </c>
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>8600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1121,14 +1140,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1180,14 +1202,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1400</v>
       </c>
       <c r="L17" s="3">
         <v>1400</v>
       </c>
       <c r="M17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>7600</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>7700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1507,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1518,132 +1557,141 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>100</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>7600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-100</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
       </c>
       <c r="P24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-100</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
       </c>
       <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,16 +1935,19 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1899,17 +1959,17 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -1920,25 +1980,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E41" s="3">
         <v>11800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,14 +2602,17 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2531,11 +2623,11 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2543,43 +2635,46 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2631,37 +2726,40 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2670,34 +2768,37 @@
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>300</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2749,19 +2850,22 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
+      <c r="T46" s="3">
+        <v>0</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E47" s="3">
         <v>1300</v>
@@ -2773,7 +2877,7 @@
         <v>1300</v>
       </c>
       <c r="H47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="I47" s="3">
         <v>2400</v>
@@ -2782,7 +2886,7 @@
         <v>2400</v>
       </c>
       <c r="K47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="L47" s="3">
         <v>2600</v>
@@ -2791,45 +2895,48 @@
         <v>2600</v>
       </c>
       <c r="N47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O47" s="3">
         <v>3800</v>
-      </c>
-      <c r="O47" s="3">
-        <v>4000</v>
       </c>
       <c r="P47" s="3">
         <v>4000</v>
       </c>
       <c r="Q47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="R47" s="3">
         <v>4400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E48" s="3">
         <v>10500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>10600</v>
       </c>
       <c r="F48" s="3">
         <v>10600</v>
       </c>
       <c r="G48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="H48" s="3">
         <v>10700</v>
@@ -2838,7 +2945,7 @@
         <v>10700</v>
       </c>
       <c r="J48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="K48" s="3">
         <v>10900</v>
@@ -2847,34 +2954,37 @@
         <v>10900</v>
       </c>
       <c r="M48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="N48" s="3">
         <v>20400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21300</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2926,14 +3036,17 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,58 +3178,61 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1600</v>
       </c>
       <c r="K52" s="3">
         <v>1600</v>
       </c>
       <c r="L52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M52" s="3">
         <v>10400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1000</v>
       </c>
       <c r="Q52" s="3">
         <v>1000</v>
       </c>
       <c r="R52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E54" s="3">
         <v>24000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>17900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>28300</v>
       </c>
       <c r="P54" s="3">
         <v>28300</v>
       </c>
       <c r="Q54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="R54" s="3">
         <v>30000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,16 +3402,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -3291,63 +3421,66 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>300</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3365,16 +3498,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
@@ -3385,14 +3518,17 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>300</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3400,58 +3536,61 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3503,14 +3642,17 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
+      <c r="T60" s="3">
+        <v>0</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3533,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3542,76 +3684,79 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
+        <v>100</v>
+      </c>
+      <c r="N61" s="3">
         <v>6000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6400</v>
-      </c>
-      <c r="R61" s="3">
-        <v>6500</v>
       </c>
       <c r="S61" s="3">
         <v>6500</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1700</v>
       </c>
       <c r="I62" s="3">
         <v>1700</v>
       </c>
       <c r="J62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2700</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>6200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3813,58 +3970,61 @@
         <v>3400</v>
       </c>
       <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12400</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4057,14 +4224,17 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-      <c r="T70" s="3" t="s">
-        <v>4</v>
+      <c r="T70" s="3">
+        <v>0</v>
       </c>
       <c r="U70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1900</v>
       </c>
       <c r="G72" s="3">
         <v>-1900</v>
       </c>
       <c r="H72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E76" s="3">
         <v>20600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>14600</v>
       </c>
       <c r="G76" s="3">
         <v>14600</v>
       </c>
       <c r="H76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I76" s="3">
         <v>15400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18500</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4652,7 +4850,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4675,14 +4873,17 @@
       <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>200</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-400</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,34 +5277,35 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5094,11 +5314,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -5109,16 +5329,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,13 +5461,16 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5250,52 +5479,55 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,23 +5795,26 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5577,13 +5822,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
@@ -5604,16 +5849,19 @@
         <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5665,69 +5913,75 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,184 +665,191 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
@@ -860,7 +867,7 @@
         <v>300</v>
       </c>
       <c r="Q9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
@@ -869,78 +876,84 @@
         <v>400</v>
       </c>
       <c r="T9" s="3">
+        <v>400</v>
+      </c>
+      <c r="U9" s="3">
         <v>600</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,17 +1104,20 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1113,8 +1133,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1205,14 +1228,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1400</v>
       </c>
       <c r="M17" s="3">
         <v>1400</v>
       </c>
       <c r="N17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,123 +1423,129 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1560,138 +1600,147 @@
       <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>100</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-100</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-100</v>
       </c>
       <c r="S24" s="3">
         <v>-100</v>
       </c>
       <c r="T24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1949,8 +2010,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1962,17 +2023,17 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1983,25 +2044,28 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2203,129 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
         <v>11200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2605,14 +2695,17 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
+      <c r="U42" s="3">
+        <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2626,11 +2719,11 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2638,43 +2731,46 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2729,40 +2825,43 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -2771,34 +2870,37 @@
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>300</v>
       </c>
       <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>300</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2853,22 +2955,25 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
+      <c r="U46" s="3">
+        <v>0</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1300</v>
       </c>
       <c r="F47" s="3">
         <v>1300</v>
@@ -2880,7 +2985,7 @@
         <v>1300</v>
       </c>
       <c r="I47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="J47" s="3">
         <v>2400</v>
@@ -2889,7 +2994,7 @@
         <v>2400</v>
       </c>
       <c r="L47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="M47" s="3">
         <v>2600</v>
@@ -2898,31 +3003,34 @@
         <v>2600</v>
       </c>
       <c r="O47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P47" s="3">
         <v>3800</v>
-      </c>
-      <c r="P47" s="3">
-        <v>4000</v>
       </c>
       <c r="Q47" s="3">
         <v>4000</v>
       </c>
       <c r="R47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="S47" s="3">
         <v>4400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,16 +3038,16 @@
         <v>10600</v>
       </c>
       <c r="E48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F48" s="3">
         <v>10500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10600</v>
       </c>
       <c r="G48" s="3">
         <v>10600</v>
       </c>
       <c r="H48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="I48" s="3">
         <v>10700</v>
@@ -2948,7 +3056,7 @@
         <v>10700</v>
       </c>
       <c r="K48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="L48" s="3">
         <v>10900</v>
@@ -2957,34 +3065,37 @@
         <v>10900</v>
       </c>
       <c r="N48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="O48" s="3">
         <v>20400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21300</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3039,14 +3150,17 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,58 +3301,61 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1600</v>
       </c>
       <c r="L52" s="3">
         <v>1600</v>
       </c>
       <c r="M52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N52" s="3">
         <v>10400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1000</v>
       </c>
       <c r="R52" s="3">
         <v>1000</v>
       </c>
       <c r="S52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E54" s="3">
         <v>23700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>28300</v>
       </c>
       <c r="Q54" s="3">
         <v>28300</v>
       </c>
       <c r="R54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="S54" s="3">
         <v>30000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>30700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30900</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3412,10 +3543,10 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3424,49 +3555,52 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>300</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3483,7 +3617,7 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3501,16 +3635,16 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>300</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3521,76 +3655,82 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>300</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4800</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3645,14 +3785,17 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
+      <c r="U60" s="3">
+        <v>0</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3678,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3687,79 +3830,82 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
+        <v>100</v>
+      </c>
+      <c r="O61" s="3">
         <v>6000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6400</v>
-      </c>
-      <c r="S61" s="3">
-        <v>6500</v>
       </c>
       <c r="T61" s="3">
         <v>6500</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1700</v>
       </c>
       <c r="J62" s="3">
         <v>1700</v>
       </c>
       <c r="K62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>6200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
         <v>3400</v>
       </c>
       <c r="F66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12400</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4227,14 +4395,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-      <c r="U70" s="3" t="s">
-        <v>4</v>
+      <c r="U70" s="3">
+        <v>0</v>
       </c>
       <c r="V70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E72" s="3">
         <v>3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1900</v>
       </c>
       <c r="H72" s="3">
         <v>-1900</v>
       </c>
       <c r="I72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E76" s="3">
         <v>20200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>14600</v>
       </c>
       <c r="H76" s="3">
         <v>14600</v>
       </c>
       <c r="I76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="J76" s="3">
         <v>15400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4853,7 +5052,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4876,14 +5075,17 @@
       <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>200</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-400</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
+      <c r="U89" s="3">
+        <v>0</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,37 +5498,38 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5317,11 +5538,11 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -5332,16 +5553,19 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,17 +5691,20 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5482,52 +5712,55 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>600</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,26 +6041,29 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5825,13 +6071,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
@@ -5852,16 +6098,19 @@
         <v>-100</v>
       </c>
       <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5916,72 +6165,78 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,201 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -870,7 +877,7 @@
         <v>300</v>
       </c>
       <c r="R9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>400</v>
@@ -879,81 +886,87 @@
         <v>400</v>
       </c>
       <c r="U9" s="3">
+        <v>400</v>
+      </c>
+      <c r="V9" s="3">
         <v>600</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,11 +1136,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,14 +1254,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1400</v>
       </c>
       <c r="N17" s="3">
         <v>1400</v>
       </c>
       <c r="O17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7600</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
       </c>
       <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1592,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1603,144 +1643,153 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>100</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
       </c>
       <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-100</v>
       </c>
       <c r="T24" s="3">
         <v>-100</v>
       </c>
       <c r="U24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2013,8 +2074,8 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2026,17 +2087,17 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>300</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2047,25 +2108,28 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E41" s="3">
         <v>11000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2698,14 +2788,17 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2722,11 +2815,11 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2734,43 +2827,46 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2828,43 +2924,46 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -2873,34 +2972,37 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>300</v>
       </c>
       <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>300</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2958,14 +3060,17 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
+      <c r="V46" s="3">
+        <v>0</v>
       </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2973,10 +3078,10 @@
         <v>1000</v>
       </c>
       <c r="E47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3">
         <v>1200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1300</v>
       </c>
       <c r="G47" s="3">
         <v>1300</v>
@@ -2988,7 +3093,7 @@
         <v>1300</v>
       </c>
       <c r="J47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="K47" s="3">
         <v>2400</v>
@@ -2997,7 +3102,7 @@
         <v>2400</v>
       </c>
       <c r="M47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="N47" s="3">
         <v>2600</v>
@@ -3006,51 +3111,54 @@
         <v>2600</v>
       </c>
       <c r="P47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q47" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>4000</v>
       </c>
       <c r="R47" s="3">
         <v>4000</v>
       </c>
       <c r="S47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="T47" s="3">
         <v>4400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5500</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E48" s="3">
         <v>10600</v>
       </c>
       <c r="F48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G48" s="3">
         <v>10500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>10600</v>
       </c>
       <c r="H48" s="3">
         <v>10600</v>
       </c>
       <c r="I48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="J48" s="3">
         <v>10700</v>
@@ -3059,7 +3167,7 @@
         <v>10700</v>
       </c>
       <c r="L48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="M48" s="3">
         <v>10900</v>
@@ -3068,34 +3176,37 @@
         <v>10900</v>
       </c>
       <c r="O48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="P48" s="3">
         <v>20400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>21100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21300</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3153,14 +3264,17 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>0</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3304,58 +3424,61 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1600</v>
       </c>
       <c r="M52" s="3">
         <v>1600</v>
       </c>
       <c r="N52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O52" s="3">
         <v>10400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1000</v>
       </c>
       <c r="S52" s="3">
         <v>1000</v>
       </c>
       <c r="T52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E54" s="3">
         <v>23200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>28300</v>
       </c>
       <c r="R54" s="3">
         <v>28300</v>
       </c>
       <c r="S54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="T54" s="3">
         <v>30000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>30700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30900</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,22 +3664,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3558,49 +3689,52 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="V57" s="3">
+        <v>300</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -3620,7 +3754,7 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3638,16 +3772,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
       </c>
       <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
@@ -3658,79 +3792,85 @@
       <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+      <c r="V58" s="3">
+        <v>300</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
       </c>
       <c r="G59" s="3">
+        <v>300</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4800</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3788,14 +3928,17 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
+      <c r="V60" s="3">
+        <v>0</v>
       </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3824,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -3833,82 +3976,85 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
+        <v>100</v>
+      </c>
+      <c r="P61" s="3">
         <v>6000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6400</v>
-      </c>
-      <c r="T61" s="3">
-        <v>6500</v>
       </c>
       <c r="U61" s="3">
         <v>6500</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1700</v>
       </c>
       <c r="K62" s="3">
         <v>1700</v>
       </c>
       <c r="L62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>6200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>3400</v>
       </c>
       <c r="F66" s="3">
         <v>3400</v>
       </c>
       <c r="G66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12400</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4398,14 +4566,17 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-      <c r="V70" s="3" t="s">
-        <v>4</v>
+      <c r="V70" s="3">
+        <v>0</v>
       </c>
       <c r="W70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E72" s="3">
         <v>3500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1900</v>
       </c>
       <c r="I72" s="3">
         <v>-1900</v>
       </c>
       <c r="J72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E76" s="3">
         <v>20500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>14600</v>
       </c>
       <c r="I76" s="3">
         <v>14600</v>
       </c>
       <c r="J76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K76" s="3">
         <v>15400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18500</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5055,7 +5254,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5078,14 +5277,17 @@
       <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>200</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-400</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
+      <c r="V89" s="3">
+        <v>0</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,40 +5719,41 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5541,11 +5762,11 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -5556,16 +5777,19 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,20 +5921,23 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5715,52 +5945,55 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,20 +6299,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6074,13 +6320,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>-100</v>
@@ -6101,16 +6347,19 @@
         <v>-100</v>
       </c>
       <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6168,75 +6417,81 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,31 +845,31 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
+        <v>300</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
@@ -880,7 +887,7 @@
         <v>300</v>
       </c>
       <c r="S9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>400</v>
@@ -889,84 +896,90 @@
         <v>400</v>
       </c>
       <c r="V9" s="3">
+        <v>400</v>
+      </c>
+      <c r="W9" s="3">
         <v>600</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,23 +1144,26 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1159,8 +1179,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1189,14 +1209,17 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1257,14 +1280,17 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
+      <c r="W15" s="3">
+        <v>0</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1400</v>
       </c>
       <c r="O17" s="3">
         <v>1400</v>
       </c>
       <c r="P17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,135 +1491,141 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1635,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1646,150 +1686,159 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>100</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-100</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
       </c>
       <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
         <v>-200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-100</v>
       </c>
       <c r="U24" s="3">
         <v>-100</v>
       </c>
       <c r="V24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,8 +2138,8 @@
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2090,17 +2151,17 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2111,25 +2172,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,135 +2343,141 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E41" s="3">
         <v>10400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2791,14 +2881,17 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>4</v>
+      <c r="W42" s="3">
+        <v>0</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2818,11 +2911,11 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2830,43 +2923,46 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2927,46 +3023,49 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
@@ -2975,34 +3074,37 @@
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
-      </c>
-      <c r="U45" s="3">
-        <v>300</v>
       </c>
       <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>300</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3063,28 +3165,31 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
+      <c r="W46" s="3">
+        <v>0</v>
       </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
       </c>
       <c r="F47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="3">
         <v>1200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1300</v>
       </c>
       <c r="H47" s="3">
         <v>1300</v>
@@ -3096,7 +3201,7 @@
         <v>1300</v>
       </c>
       <c r="K47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="L47" s="3">
         <v>2400</v>
@@ -3105,7 +3210,7 @@
         <v>2400</v>
       </c>
       <c r="N47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="O47" s="3">
         <v>2600</v>
@@ -3114,31 +3219,34 @@
         <v>2600</v>
       </c>
       <c r="Q47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R47" s="3">
         <v>3800</v>
-      </c>
-      <c r="R47" s="3">
-        <v>4000</v>
       </c>
       <c r="S47" s="3">
         <v>4000</v>
       </c>
       <c r="T47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="U47" s="3">
         <v>4400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5500</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,22 +3254,22 @@
         <v>10500</v>
       </c>
       <c r="E48" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F48" s="3">
         <v>10600</v>
       </c>
       <c r="G48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H48" s="3">
         <v>10500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10600</v>
       </c>
       <c r="I48" s="3">
         <v>10600</v>
       </c>
       <c r="J48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="K48" s="3">
         <v>10700</v>
@@ -3170,7 +3278,7 @@
         <v>10700</v>
       </c>
       <c r="M48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="N48" s="3">
         <v>10900</v>
@@ -3179,34 +3287,37 @@
         <v>10900</v>
       </c>
       <c r="P48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="Q48" s="3">
         <v>20400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>21100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21300</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3267,14 +3378,17 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3427,58 +3547,61 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1600</v>
       </c>
       <c r="N52" s="3">
         <v>1600</v>
       </c>
       <c r="O52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P52" s="3">
         <v>10400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1000</v>
       </c>
       <c r="T52" s="3">
         <v>1000</v>
       </c>
       <c r="U52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E54" s="3">
         <v>22500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>28300</v>
       </c>
       <c r="S54" s="3">
         <v>28300</v>
       </c>
       <c r="T54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="U54" s="3">
         <v>30000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>30700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30900</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3795,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3692,49 +3823,52 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
+      <c r="W57" s="3">
+        <v>300</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>500</v>
@@ -3757,7 +3891,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3775,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
       </c>
       <c r="R58" s="3">
+        <v>300</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
@@ -3795,82 +3929,88 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
+      <c r="W58" s="3">
+        <v>300</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>300</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4800</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3931,14 +4071,17 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
+      <c r="W60" s="3">
+        <v>0</v>
       </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3970,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3979,85 +4122,88 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>6000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6400</v>
-      </c>
-      <c r="U61" s="3">
-        <v>6500</v>
       </c>
       <c r="V61" s="3">
         <v>6500</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1700</v>
       </c>
       <c r="L62" s="3">
         <v>1700</v>
       </c>
       <c r="M62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>6200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>3100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>3400</v>
       </c>
       <c r="G66" s="3">
         <v>3400</v>
       </c>
       <c r="H66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12400</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4569,14 +4737,17 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-      <c r="W70" s="3" t="s">
-        <v>4</v>
+      <c r="W70" s="3">
+        <v>0</v>
       </c>
       <c r="X70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E72" s="3">
         <v>3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1900</v>
       </c>
       <c r="J72" s="3">
         <v>-1900</v>
       </c>
       <c r="K72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E76" s="3">
         <v>20800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>14600</v>
       </c>
       <c r="J76" s="3">
         <v>14600</v>
       </c>
       <c r="K76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="L76" s="3">
         <v>15400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5257,7 +5456,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5280,14 +5479,17 @@
       <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
+      <c r="W83" s="3">
+        <v>200</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-400</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
+      <c r="W89" s="3">
+        <v>0</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,34 +5950,34 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5765,11 +5986,11 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5780,16 +6001,19 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,23 +6151,26 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5948,52 +6178,55 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>1100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>600</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,20 +6548,20 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6323,13 +6569,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
@@ -6350,16 +6596,19 @@
         <v>-100</v>
       </c>
       <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6420,78 +6669,84 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,185 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1200</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,31 +854,31 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
       </c>
       <c r="L9" s="3">
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
@@ -890,7 +896,7 @@
         <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U9" s="3">
         <v>400</v>
@@ -899,87 +905,93 @@
         <v>400</v>
       </c>
       <c r="W9" s="3">
+        <v>400</v>
+      </c>
+      <c r="X9" s="3">
         <v>600</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,26 +1163,29 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1182,8 +1201,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1212,14 +1231,17 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,14 +1305,17 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1400</v>
       </c>
       <c r="P17" s="3">
         <v>1400</v>
       </c>
       <c r="Q17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1494,138 +1527,144 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1689,85 +1728,91 @@
       <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="X22" s="3">
+        <v>100</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1775,70 +1820,73 @@
         <v>-200</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>-100</v>
       </c>
       <c r="S24" s="3">
         <v>-100</v>
       </c>
       <c r="T24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-100</v>
       </c>
       <c r="V24" s="3">
         <v>-100</v>
       </c>
       <c r="W24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2141,8 +2201,8 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2154,17 +2214,17 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>300</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2175,25 +2235,28 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2346,138 +2415,144 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,19 +2973,22 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>4</v>
+      <c r="X42" s="3">
+        <v>0</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2914,11 +3006,11 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2926,43 +3018,46 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3026,49 +3121,52 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
+        <v>300</v>
+      </c>
+      <c r="N45" s="3">
         <v>500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
@@ -3077,34 +3175,37 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>300</v>
       </c>
       <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>300</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3168,31 +3269,34 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
+      <c r="X46" s="3">
+        <v>0</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E47" s="3">
         <v>900</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1000</v>
       </c>
       <c r="F47" s="3">
         <v>1000</v>
       </c>
       <c r="G47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="3">
         <v>1200</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1300</v>
       </c>
       <c r="I47" s="3">
         <v>1300</v>
@@ -3204,7 +3308,7 @@
         <v>1300</v>
       </c>
       <c r="L47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="M47" s="3">
         <v>2400</v>
@@ -3213,7 +3317,7 @@
         <v>2400</v>
       </c>
       <c r="O47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="P47" s="3">
         <v>2600</v>
@@ -3222,57 +3326,60 @@
         <v>2600</v>
       </c>
       <c r="R47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S47" s="3">
         <v>3800</v>
-      </c>
-      <c r="S47" s="3">
-        <v>4000</v>
       </c>
       <c r="T47" s="3">
         <v>4000</v>
       </c>
       <c r="U47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="V47" s="3">
         <v>4400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5500</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E48" s="3">
         <v>10500</v>
       </c>
       <c r="F48" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="G48" s="3">
         <v>10600</v>
       </c>
       <c r="H48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I48" s="3">
         <v>10500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>10600</v>
       </c>
       <c r="J48" s="3">
         <v>10600</v>
       </c>
       <c r="K48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="L48" s="3">
         <v>10700</v>
@@ -3281,7 +3388,7 @@
         <v>10700</v>
       </c>
       <c r="N48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="O48" s="3">
         <v>10900</v>
@@ -3290,34 +3397,37 @@
         <v>10900</v>
       </c>
       <c r="Q48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="R48" s="3">
         <v>20400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>21100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>21300</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3381,14 +3491,17 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,13 +3645,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3550,58 +3669,61 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1600</v>
       </c>
       <c r="O52" s="3">
         <v>1600</v>
       </c>
       <c r="P52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>10400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5800</v>
-      </c>
-      <c r="T52" s="3">
-        <v>1000</v>
       </c>
       <c r="U52" s="3">
         <v>1000</v>
       </c>
       <c r="V52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3680,70 +3805,73 @@
         <v>21600</v>
       </c>
       <c r="E54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F54" s="3">
         <v>22500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>28300</v>
       </c>
       <c r="T54" s="3">
         <v>28300</v>
       </c>
       <c r="U54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="V54" s="3">
         <v>30000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>30700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30900</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,28 +3925,29 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3826,49 +3956,52 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
+      <c r="X57" s="3">
+        <v>300</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3885,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -3894,7 +4027,7 @@
         <v>500</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3912,16 +4045,16 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
       </c>
       <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
@@ -3932,85 +4065,91 @@
       <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
+      <c r="X58" s="3">
+        <v>300</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4800</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4074,14 +4213,17 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
+      <c r="X60" s="3">
+        <v>0</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4116,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
@@ -4125,88 +4267,91 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
         <v>6000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6400</v>
-      </c>
-      <c r="V61" s="3">
-        <v>6500</v>
       </c>
       <c r="W61" s="3">
         <v>6500</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1700</v>
       </c>
       <c r="M62" s="3">
         <v>1700</v>
       </c>
       <c r="N62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>6200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>3100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>3400</v>
       </c>
       <c r="H66" s="3">
         <v>3400</v>
       </c>
       <c r="I66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12400</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4740,14 +4907,17 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-      <c r="X70" s="3" t="s">
-        <v>4</v>
+      <c r="X70" s="3">
+        <v>0</v>
       </c>
       <c r="Y70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E72" s="3">
         <v>2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1900</v>
       </c>
       <c r="K72" s="3">
         <v>-1900</v>
       </c>
       <c r="L72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E76" s="3">
         <v>20200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>14600</v>
       </c>
       <c r="K76" s="3">
         <v>14600</v>
       </c>
       <c r="L76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="M76" s="3">
         <v>15400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5459,7 +5657,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -5482,14 +5680,17 @@
       <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
+      <c r="X83" s="3">
+        <v>200</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
+      <c r="X89" s="3">
+        <v>0</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,46 +6160,47 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5989,11 +6209,11 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -6004,16 +6224,19 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,26 +6380,29 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6181,52 +6410,55 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6551,20 +6796,20 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6572,13 +6817,13 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -6599,16 +6844,19 @@
         <v>-100</v>
       </c>
       <c r="W100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6672,81 +6920,87 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
+      <c r="X101" s="3">
+        <v>0</v>
       </c>
       <c r="Y101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1200</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,31 +864,31 @@
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
@@ -899,7 +906,7 @@
         <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V9" s="3">
         <v>400</v>
@@ -908,90 +915,96 @@
         <v>400</v>
       </c>
       <c r="X9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y9" s="3">
         <v>600</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,29 +1183,32 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1204,8 +1224,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1234,14 +1254,17 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1308,14 +1331,17 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1400</v>
       </c>
       <c r="Q17" s="3">
         <v>1400</v>
       </c>
       <c r="R17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1530,141 +1564,147 @@
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1720,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1731,162 +1771,171 @@
       <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>100</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
       </c>
       <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-100</v>
       </c>
       <c r="T24" s="3">
         <v>-100</v>
       </c>
       <c r="U24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-100</v>
       </c>
       <c r="W24" s="3">
         <v>-100</v>
       </c>
       <c r="X24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-200</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-200</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2204,8 +2265,8 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2217,17 +2278,17 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2238,25 +2299,28 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -2418,141 +2488,147 @@
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-200</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-200</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2976,22 +3066,25 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>4</v>
+      <c r="Y42" s="3">
+        <v>0</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3009,11 +3102,11 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -3021,43 +3114,46 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3124,14 +3220,17 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
+      <c r="Y44" s="3">
+        <v>0</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,37 +3238,37 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>300</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
+        <v>300</v>
+      </c>
+      <c r="O45" s="3">
         <v>500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
@@ -3178,34 +3277,37 @@
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>300</v>
       </c>
       <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
+      <c r="Y45" s="3">
+        <v>300</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3272,14 +3374,17 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
+      <c r="Y46" s="3">
+        <v>0</v>
       </c>
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3287,19 +3392,19 @@
         <v>2200</v>
       </c>
       <c r="E47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F47" s="3">
         <v>900</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1000</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
       </c>
       <c r="H47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="3">
         <v>1200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1300</v>
       </c>
       <c r="J47" s="3">
         <v>1300</v>
@@ -3311,7 +3416,7 @@
         <v>1300</v>
       </c>
       <c r="M47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="N47" s="3">
         <v>2400</v>
@@ -3320,7 +3425,7 @@
         <v>2400</v>
       </c>
       <c r="P47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="Q47" s="3">
         <v>2600</v>
@@ -3329,60 +3434,63 @@
         <v>2600</v>
       </c>
       <c r="S47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T47" s="3">
         <v>3800</v>
-      </c>
-      <c r="T47" s="3">
-        <v>4000</v>
       </c>
       <c r="U47" s="3">
         <v>4000</v>
       </c>
       <c r="V47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="W47" s="3">
         <v>4400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5500</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E48" s="3">
         <v>10600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>10500</v>
       </c>
       <c r="F48" s="3">
         <v>10500</v>
       </c>
       <c r="G48" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="H48" s="3">
         <v>10600</v>
       </c>
       <c r="I48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J48" s="3">
         <v>10500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>10600</v>
       </c>
       <c r="K48" s="3">
         <v>10600</v>
       </c>
       <c r="L48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="M48" s="3">
         <v>10700</v>
@@ -3391,7 +3499,7 @@
         <v>10700</v>
       </c>
       <c r="O48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="P48" s="3">
         <v>10900</v>
@@ -3400,34 +3508,37 @@
         <v>10900</v>
       </c>
       <c r="R48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="S48" s="3">
         <v>20400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>21100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>21300</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3494,14 +3605,17 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
+      <c r="Y49" s="3">
+        <v>0</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,17 +3765,20 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -3672,58 +3792,61 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>1600</v>
       </c>
       <c r="P52" s="3">
         <v>1600</v>
       </c>
       <c r="Q52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R52" s="3">
         <v>10400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1000</v>
       </c>
       <c r="V52" s="3">
         <v>1000</v>
       </c>
       <c r="W52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="E54" s="3">
         <v>21600</v>
       </c>
       <c r="F54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="G54" s="3">
         <v>22500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>28100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>28300</v>
       </c>
       <c r="U54" s="3">
         <v>28300</v>
       </c>
       <c r="V54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="W54" s="3">
         <v>30000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>30700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30900</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3935,22 +4066,22 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3959,49 +4090,52 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
+      <c r="Y57" s="3">
+        <v>300</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4021,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>500</v>
@@ -4030,7 +4164,7 @@
         <v>500</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4048,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
+        <v>300</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>300</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
@@ -4068,88 +4202,94 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
+      <c r="Y58" s="3">
+        <v>300</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
+        <v>300</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4800</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4216,14 +4356,17 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
+      <c r="Y60" s="3">
+        <v>0</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4261,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
@@ -4270,34 +4413,37 @@
         <v>100</v>
       </c>
       <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
         <v>6000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6400</v>
-      </c>
-      <c r="W61" s="3">
-        <v>6500</v>
       </c>
       <c r="X61" s="3">
         <v>6500</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4305,56 +4451,56 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1700</v>
       </c>
       <c r="N62" s="3">
         <v>1700</v>
       </c>
       <c r="O62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>6200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>3100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3400</v>
       </c>
       <c r="I66" s="3">
         <v>3400</v>
       </c>
       <c r="J66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12400</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4910,14 +5078,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-      <c r="Y70" s="3" t="s">
-        <v>4</v>
+      <c r="Y70" s="3">
+        <v>0</v>
       </c>
       <c r="Z70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1900</v>
       </c>
       <c r="L72" s="3">
         <v>-1900</v>
       </c>
       <c r="M72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1900</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E76" s="3">
         <v>19800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>14600</v>
       </c>
       <c r="L76" s="3">
         <v>14600</v>
       </c>
       <c r="M76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="N76" s="3">
         <v>15400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>18500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18500</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-200</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5660,7 +5859,7 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5683,14 +5882,17 @@
       <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
+      <c r="Y83" s="3">
+        <v>200</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-400</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
+      <c r="Y89" s="3">
+        <v>0</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6170,40 +6391,40 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6212,11 +6433,11 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -6227,16 +6448,19 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,29 +6610,32 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6413,52 +6643,55 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>1100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6799,20 +7045,20 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6820,13 +7066,13 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
@@ -6847,16 +7093,19 @@
         <v>-100</v>
       </c>
       <c r="X100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6923,84 +7172,90 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
+      <c r="Y101" s="3">
+        <v>0</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,204 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1200</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -867,31 +874,31 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
-      </c>
-      <c r="P9" s="3">
-        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -909,7 +916,7 @@
         <v>300</v>
       </c>
       <c r="V9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W9" s="3">
         <v>400</v>
@@ -918,93 +925,99 @@
         <v>400</v>
       </c>
       <c r="Y9" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z9" s="3">
         <v>600</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,21 +1217,21 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,8 +1247,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1334,14 +1357,17 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1400</v>
       </c>
       <c r="R17" s="3">
         <v>1400</v>
       </c>
       <c r="S17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1567,144 +1601,150 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1774,91 +1814,97 @@
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>100</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,76 +1912,79 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-100</v>
       </c>
       <c r="U24" s="3">
         <v>-100</v>
       </c>
       <c r="V24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W24" s="3">
         <v>-200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>-100</v>
       </c>
       <c r="X24" s="3">
         <v>-100</v>
       </c>
       <c r="Y24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-200</v>
       </c>
       <c r="X26" s="3">
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-200</v>
       </c>
       <c r="X27" s="3">
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2268,8 +2329,8 @@
       <c r="J29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2281,17 +2342,17 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>300</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2302,25 +2363,28 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -2491,144 +2561,150 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>-100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-200</v>
       </c>
       <c r="X33" s="3">
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-200</v>
       </c>
       <c r="X35" s="3">
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2400</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3069,25 +3159,28 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>4</v>
+      <c r="Z42" s="3">
+        <v>0</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -3105,11 +3198,11 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -3117,43 +3210,46 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3223,14 +3319,17 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
+      <c r="Z44" s="3">
+        <v>0</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3241,37 +3340,37 @@
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
@@ -3280,34 +3379,37 @@
         <v>300</v>
       </c>
       <c r="S45" s="3">
+        <v>300</v>
+      </c>
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>300</v>
       </c>
       <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="Z45" s="3">
+        <v>300</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3377,37 +3479,40 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
+      <c r="Z46" s="3">
+        <v>0</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="E47" s="3">
         <v>2200</v>
       </c>
       <c r="F47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G47" s="3">
         <v>900</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1000</v>
       </c>
       <c r="H47" s="3">
         <v>1000</v>
       </c>
       <c r="I47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="3">
         <v>1200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1300</v>
       </c>
       <c r="K47" s="3">
         <v>1300</v>
@@ -3419,7 +3524,7 @@
         <v>1300</v>
       </c>
       <c r="N47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="O47" s="3">
         <v>2400</v>
@@ -3428,7 +3533,7 @@
         <v>2400</v>
       </c>
       <c r="Q47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="R47" s="3">
         <v>2600</v>
@@ -3437,63 +3542,66 @@
         <v>2600</v>
       </c>
       <c r="T47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U47" s="3">
         <v>3800</v>
-      </c>
-      <c r="U47" s="3">
-        <v>4000</v>
       </c>
       <c r="V47" s="3">
         <v>4000</v>
       </c>
       <c r="W47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="X47" s="3">
         <v>4400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5500</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E48" s="3">
         <v>10700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>10500</v>
       </c>
       <c r="G48" s="3">
         <v>10500</v>
       </c>
       <c r="H48" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I48" s="3">
         <v>10600</v>
       </c>
       <c r="J48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K48" s="3">
         <v>10500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>10600</v>
       </c>
       <c r="L48" s="3">
         <v>10600</v>
       </c>
       <c r="M48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="N48" s="3">
         <v>10700</v>
@@ -3502,7 +3610,7 @@
         <v>10700</v>
       </c>
       <c r="P48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="Q48" s="3">
         <v>10900</v>
@@ -3511,34 +3619,37 @@
         <v>10900</v>
       </c>
       <c r="S48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="T48" s="3">
         <v>20400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>20600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>21100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>21300</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3608,14 +3719,17 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
+      <c r="Z49" s="3">
+        <v>0</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,20 +3885,23 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -3795,58 +3915,61 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1600</v>
       </c>
       <c r="Q52" s="3">
         <v>1600</v>
       </c>
       <c r="R52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S52" s="3">
         <v>10400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5800</v>
-      </c>
-      <c r="V52" s="3">
-        <v>1000</v>
       </c>
       <c r="W52" s="3">
         <v>1000</v>
       </c>
       <c r="X52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E54" s="3">
         <v>21400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>21600</v>
       </c>
       <c r="F54" s="3">
         <v>21600</v>
       </c>
       <c r="G54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H54" s="3">
         <v>22500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>27000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>28100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>28300</v>
       </c>
       <c r="V54" s="3">
         <v>28300</v>
       </c>
       <c r="W54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="X54" s="3">
         <v>30000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>30700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>30900</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4069,22 +4200,22 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -4093,49 +4224,52 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
       <c r="X57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
+      <c r="Z57" s="3">
+        <v>300</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4158,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -4167,7 +4301,7 @@
         <v>500</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4185,16 +4319,16 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
       <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
-      </c>
-      <c r="V58" s="3">
-        <v>300</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -4205,91 +4339,97 @@
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Z58" s="3">
+        <v>300</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4800</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4359,14 +4499,17 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
+      <c r="Z60" s="3">
+        <v>0</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4407,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>100</v>
@@ -4416,94 +4559,97 @@
         <v>100</v>
       </c>
       <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
         <v>6000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6400</v>
-      </c>
-      <c r="X61" s="3">
-        <v>6500</v>
       </c>
       <c r="Y61" s="3">
         <v>6500</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>400</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1700</v>
       </c>
       <c r="O62" s="3">
         <v>1700</v>
       </c>
       <c r="P62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>6200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
         <v>3100</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3400</v>
       </c>
       <c r="J66" s="3">
         <v>3400</v>
       </c>
       <c r="K66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12400</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5081,14 +5249,17 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-      <c r="Z70" s="3" t="s">
-        <v>4</v>
+      <c r="Z70" s="3">
+        <v>0</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1900</v>
       </c>
       <c r="M72" s="3">
         <v>-1900</v>
       </c>
       <c r="N72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1900</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E76" s="3">
         <v>19700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>14600</v>
       </c>
       <c r="M76" s="3">
         <v>14600</v>
       </c>
       <c r="N76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="O76" s="3">
         <v>15400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>18500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18500</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-200</v>
       </c>
       <c r="X81" s="3">
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5862,7 +6061,7 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5885,14 +6084,17 @@
       <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
+      <c r="Z83" s="3">
+        <v>200</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-400</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
+      <c r="Z89" s="3">
+        <v>0</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,52 +6602,53 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6436,11 +6657,11 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -6451,16 +6672,19 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-200</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,32 +6840,35 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6646,52 +6876,55 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>600</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7048,20 +7294,20 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -7069,13 +7315,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>-100</v>
@@ -7096,16 +7342,19 @@
         <v>-100</v>
       </c>
       <c r="Y100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7175,87 +7424,93 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-      <c r="Z101" s="3" t="s">
-        <v>4</v>
+      <c r="Z101" s="3">
+        <v>0</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>700</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,214 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1200</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
@@ -877,31 +884,31 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
@@ -919,7 +926,7 @@
         <v>300</v>
       </c>
       <c r="W9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X9" s="3">
         <v>400</v>
@@ -928,96 +935,102 @@
         <v>400</v>
       </c>
       <c r="Z9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA9" s="3">
         <v>600</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>600</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,13 +1223,16 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1220,21 +1240,21 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1250,8 +1270,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1280,14 +1300,17 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1360,14 +1383,17 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-      <c r="AA15" s="3" t="s">
-        <v>4</v>
+      <c r="AA15" s="3">
+        <v>0</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1400</v>
       </c>
       <c r="S17" s="3">
         <v>1400</v>
       </c>
       <c r="T17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,19 +1616,20 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1604,147 +1638,153 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
         <v>0</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1806,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1817,174 +1857,183 @@
       <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
+      <c r="AA22" s="3">
+        <v>100</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
       </c>
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-700</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>-200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>-100</v>
       </c>
       <c r="V24" s="3">
         <v>-100</v>
       </c>
       <c r="W24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X24" s="3">
         <v>-200</v>
-      </c>
-      <c r="X24" s="3">
-        <v>-100</v>
       </c>
       <c r="Y24" s="3">
         <v>-100</v>
       </c>
       <c r="Z24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-200</v>
       </c>
       <c r="Y26" s="3">
         <v>-200</v>
       </c>
       <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-200</v>
       </c>
       <c r="Y27" s="3">
         <v>-200</v>
       </c>
       <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,37 +2361,40 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2345,17 +2406,17 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>300</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2366,25 +2427,28 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-200</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>4</v>
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,19 +2610,22 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -2564,147 +2634,153 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-200</v>
       </c>
       <c r="Y33" s="3">
         <v>-200</v>
       </c>
       <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-200</v>
       </c>
       <c r="Y35" s="3">
         <v>-200</v>
       </c>
       <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2400</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3162,28 +3252,31 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>4</v>
+      <c r="AA42" s="3">
+        <v>0</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3201,11 +3294,11 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -3213,43 +3306,46 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
       <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3322,19 +3418,22 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>4</v>
+      <c r="AA44" s="3">
+        <v>0</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
@@ -3343,37 +3442,37 @@
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>300</v>
@@ -3382,34 +3481,37 @@
         <v>300</v>
       </c>
       <c r="T45" s="3">
+        <v>300</v>
+      </c>
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>300</v>
       </c>
       <c r="Z45" s="3">
         <v>300</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
+      <c r="AA45" s="3">
+        <v>300</v>
       </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3482,40 +3584,43 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>4</v>
+      <c r="AA46" s="3">
+        <v>0</v>
       </c>
       <c r="AB46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E47" s="3">
         <v>3700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2200</v>
       </c>
       <c r="F47" s="3">
         <v>2200</v>
       </c>
       <c r="G47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H47" s="3">
         <v>900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1000</v>
       </c>
       <c r="I47" s="3">
         <v>1000</v>
       </c>
       <c r="J47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1200</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1300</v>
       </c>
       <c r="L47" s="3">
         <v>1300</v>
@@ -3527,7 +3632,7 @@
         <v>1300</v>
       </c>
       <c r="O47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="P47" s="3">
         <v>2400</v>
@@ -3536,7 +3641,7 @@
         <v>2400</v>
       </c>
       <c r="R47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="S47" s="3">
         <v>2600</v>
@@ -3545,66 +3650,69 @@
         <v>2600</v>
       </c>
       <c r="U47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V47" s="3">
         <v>3800</v>
-      </c>
-      <c r="V47" s="3">
-        <v>4000</v>
       </c>
       <c r="W47" s="3">
         <v>4000</v>
       </c>
       <c r="X47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Y47" s="3">
         <v>4400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5500</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E48" s="3">
         <v>10500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>10500</v>
       </c>
       <c r="H48" s="3">
         <v>10500</v>
       </c>
       <c r="I48" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="J48" s="3">
         <v>10600</v>
       </c>
       <c r="K48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="L48" s="3">
         <v>10500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>10600</v>
       </c>
       <c r="M48" s="3">
         <v>10600</v>
       </c>
       <c r="N48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="O48" s="3">
         <v>10700</v>
@@ -3613,7 +3721,7 @@
         <v>10700</v>
       </c>
       <c r="Q48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="R48" s="3">
         <v>10900</v>
@@ -3622,34 +3730,37 @@
         <v>10900</v>
       </c>
       <c r="T48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="U48" s="3">
         <v>20400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>20600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>16000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>21100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>21300</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3722,14 +3833,17 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>4</v>
+      <c r="AA49" s="3">
+        <v>0</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,23 +4005,26 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -3918,58 +4038,61 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1600</v>
       </c>
       <c r="R52" s="3">
         <v>1600</v>
       </c>
       <c r="S52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T52" s="3">
         <v>10400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5800</v>
-      </c>
-      <c r="W52" s="3">
-        <v>1000</v>
       </c>
       <c r="X52" s="3">
         <v>1000</v>
       </c>
       <c r="Y52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1100</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E54" s="3">
         <v>20700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>21600</v>
       </c>
       <c r="G54" s="3">
         <v>21600</v>
       </c>
       <c r="H54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="I54" s="3">
         <v>22500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>27000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>28100</v>
-      </c>
-      <c r="V54" s="3">
-        <v>28300</v>
       </c>
       <c r="W54" s="3">
         <v>28300</v>
       </c>
       <c r="X54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>30000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>30700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>30900</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4203,22 +4334,22 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -4227,54 +4358,57 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>200</v>
       </c>
       <c r="Y57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
+      <c r="AA57" s="3">
+        <v>300</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4295,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
@@ -4304,7 +4438,7 @@
         <v>500</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4322,16 +4456,16 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
       </c>
       <c r="V58" s="3">
+        <v>300</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
@@ -4342,94 +4476,100 @@
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
+      <c r="AA58" s="3">
+        <v>300</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
+        <v>300</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>300</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4800</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4502,14 +4642,17 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-      <c r="AA60" s="3" t="s">
-        <v>4</v>
+      <c r="AA60" s="3">
+        <v>0</v>
       </c>
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4553,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
@@ -4562,97 +4705,100 @@
         <v>100</v>
       </c>
       <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>6000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6400</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>6500</v>
       </c>
       <c r="Z61" s="3">
         <v>6500</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
       </c>
       <c r="G62" s="3">
+        <v>400</v>
+      </c>
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1700</v>
       </c>
       <c r="P62" s="3">
         <v>1700</v>
       </c>
       <c r="Q62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>6200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>3100</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3400</v>
       </c>
       <c r="K66" s="3">
         <v>3400</v>
       </c>
       <c r="L66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12400</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5252,14 +5420,17 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-      <c r="AA70" s="3" t="s">
-        <v>4</v>
+      <c r="AA70" s="3">
+        <v>0</v>
       </c>
       <c r="AB70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1900</v>
       </c>
       <c r="N72" s="3">
         <v>-1900</v>
       </c>
       <c r="O72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1900</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E76" s="3">
         <v>19400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>14600</v>
       </c>
       <c r="N76" s="3">
         <v>14600</v>
       </c>
       <c r="O76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="P76" s="3">
         <v>15400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18500</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-200</v>
       </c>
       <c r="Y81" s="3">
         <v>-200</v>
       </c>
       <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6064,7 +6263,7 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -6087,14 +6286,17 @@
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
+      <c r="AA83" s="3">
+        <v>200</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-400</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-1200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
+      <c r="AA89" s="3">
+        <v>0</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,46 +6833,46 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6660,11 +6881,11 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6675,16 +6896,19 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-200</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,35 +7070,38 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6879,52 +7109,55 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>600</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7297,20 +7543,20 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7318,13 +7564,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
@@ -7345,16 +7591,19 @@
         <v>-100</v>
       </c>
       <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7427,90 +7676,96 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
+      <c r="AA101" s="3">
+        <v>0</v>
       </c>
       <c r="AB101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>700</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,223 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1200</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>500</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -887,31 +893,31 @@
         <v>300</v>
       </c>
       <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>300</v>
       </c>
       <c r="P9" s="3">
         <v>300</v>
       </c>
       <c r="Q9" s="3">
+        <v>300</v>
+      </c>
+      <c r="R9" s="3">
         <v>400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>300</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
@@ -929,7 +935,7 @@
         <v>300</v>
       </c>
       <c r="X9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y9" s="3">
         <v>400</v>
@@ -938,99 +944,105 @@
         <v>400</v>
       </c>
       <c r="AA9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB9" s="3">
         <v>600</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>600</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,16 +1242,19 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1243,21 +1262,21 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1273,8 +1292,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1303,14 +1322,17 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1386,14 +1408,17 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>4</v>
+      <c r="AB15" s="3">
+        <v>0</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1400</v>
       </c>
       <c r="T17" s="3">
         <v>1400</v>
       </c>
       <c r="U17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-200</v>
       </c>
       <c r="Z18" s="3">
         <v>-200</v>
       </c>
       <c r="AA18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,22 +1649,23 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1641,150 +1674,156 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-400</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
@@ -1860,180 +1899,189 @@
       <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
+      <c r="AB22" s="3">
+        <v>100</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-300</v>
       </c>
       <c r="Z23" s="3">
         <v>-300</v>
       </c>
       <c r="AA23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-700</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-100</v>
       </c>
       <c r="W24" s="3">
         <v>-100</v>
       </c>
       <c r="X24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>-100</v>
       </c>
       <c r="Z24" s="3">
         <v>-100</v>
       </c>
       <c r="AA24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-200</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
       </c>
       <c r="Z26" s="3">
         <v>-200</v>
       </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
       </c>
       <c r="Z27" s="3">
         <v>-200</v>
       </c>
       <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2390,14 +2450,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2409,17 +2469,17 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>300</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2430,25 +2490,28 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-200</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>4</v>
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,22 +2679,25 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -2637,150 +2706,156 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
       </c>
       <c r="Z33" s="3">
         <v>-200</v>
       </c>
       <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
       </c>
       <c r="Z35" s="3">
         <v>-200</v>
       </c>
       <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2400</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3255,14 +3344,17 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>4</v>
+      <c r="AB42" s="3">
+        <v>0</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3270,16 +3362,16 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3297,11 +3389,11 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -3309,43 +3401,46 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>500</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
       <c r="U43" s="3">
         <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
       </c>
       <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3421,22 +3516,25 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>4</v>
+      <c r="AB44" s="3">
+        <v>0</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -3445,37 +3543,37 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>300</v>
       </c>
       <c r="S45" s="3">
         <v>300</v>
@@ -3484,34 +3582,37 @@
         <v>300</v>
       </c>
       <c r="U45" s="3">
+        <v>300</v>
+      </c>
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>300</v>
       </c>
       <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
+      <c r="AB45" s="3">
+        <v>300</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3587,43 +3688,46 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>4</v>
+      <c r="AB46" s="3">
+        <v>0</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>2200</v>
       </c>
       <c r="G47" s="3">
         <v>2200</v>
       </c>
       <c r="H47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I47" s="3">
         <v>900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1000</v>
       </c>
       <c r="J47" s="3">
         <v>1000</v>
       </c>
       <c r="K47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="3">
         <v>1200</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1300</v>
       </c>
       <c r="M47" s="3">
         <v>1300</v>
@@ -3635,7 +3739,7 @@
         <v>1300</v>
       </c>
       <c r="P47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="Q47" s="3">
         <v>2400</v>
@@ -3644,7 +3748,7 @@
         <v>2400</v>
       </c>
       <c r="S47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="T47" s="3">
         <v>2600</v>
@@ -3653,31 +3757,34 @@
         <v>2600</v>
       </c>
       <c r="V47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W47" s="3">
         <v>3800</v>
-      </c>
-      <c r="W47" s="3">
-        <v>4000</v>
       </c>
       <c r="X47" s="3">
         <v>4000</v>
       </c>
       <c r="Y47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Z47" s="3">
         <v>4400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5500</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3685,37 +3792,37 @@
         <v>10700</v>
       </c>
       <c r="E48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F48" s="3">
         <v>10500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>10700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>10500</v>
       </c>
       <c r="I48" s="3">
         <v>10500</v>
       </c>
       <c r="J48" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="K48" s="3">
         <v>10600</v>
       </c>
       <c r="L48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="M48" s="3">
         <v>10500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>10600</v>
       </c>
       <c r="N48" s="3">
         <v>10600</v>
       </c>
       <c r="O48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="P48" s="3">
         <v>10700</v>
@@ -3724,7 +3831,7 @@
         <v>10700</v>
       </c>
       <c r="R48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="S48" s="3">
         <v>10900</v>
@@ -3733,34 +3840,37 @@
         <v>10900</v>
       </c>
       <c r="U48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="V48" s="3">
         <v>20400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>20600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>16000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>20800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>21100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>21300</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3836,14 +3946,17 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>4</v>
+      <c r="AB49" s="3">
+        <v>0</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,26 +4124,29 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
@@ -4041,58 +4160,61 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1600</v>
       </c>
       <c r="S52" s="3">
         <v>1600</v>
       </c>
       <c r="T52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U52" s="3">
         <v>10400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>5800</v>
-      </c>
-      <c r="X52" s="3">
-        <v>1000</v>
       </c>
       <c r="Y52" s="3">
         <v>1000</v>
       </c>
       <c r="Z52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA52" s="3">
         <v>1200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1100</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E54" s="3">
         <v>20100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>21600</v>
       </c>
       <c r="H54" s="3">
         <v>21600</v>
       </c>
       <c r="I54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J54" s="3">
         <v>22500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>27000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>28100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>28300</v>
       </c>
       <c r="X54" s="3">
         <v>28300</v>
       </c>
       <c r="Y54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="Z54" s="3">
         <v>30000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>30700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>30900</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,13 +4448,14 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -4337,22 +4467,22 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -4361,57 +4491,60 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
       </c>
       <c r="Z57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA57" s="3">
         <v>300</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
+      <c r="AB57" s="3">
+        <v>300</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4432,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>500</v>
@@ -4441,7 +4574,7 @@
         <v>500</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4459,16 +4592,16 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
       <c r="W58" s="3">
+        <v>300</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
@@ -4479,14 +4612,17 @@
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
+      <c r="AB58" s="3">
+        <v>300</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4494,82 +4630,85 @@
         <v>300</v>
       </c>
       <c r="E59" s="3">
+        <v>300</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
       </c>
       <c r="M59" s="3">
+        <v>300</v>
+      </c>
+      <c r="N59" s="3">
         <v>500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4800</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4645,14 +4784,17 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
+      <c r="AB60" s="3">
+        <v>0</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4699,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
@@ -4708,100 +4850,103 @@
         <v>100</v>
       </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
         <v>6000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6400</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>6500</v>
       </c>
       <c r="AA61" s="3">
         <v>6500</v>
       </c>
       <c r="AB61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
       </c>
       <c r="H62" s="3">
+        <v>400</v>
+      </c>
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1700</v>
       </c>
       <c r="Q62" s="3">
         <v>1700</v>
       </c>
       <c r="R62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S62" s="3">
         <v>2700</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>6200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
         <v>3100</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3400</v>
       </c>
       <c r="L66" s="3">
         <v>3400</v>
       </c>
       <c r="M66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12400</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5423,14 +5590,17 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-      <c r="AB70" s="3" t="s">
-        <v>4</v>
+      <c r="AB70" s="3">
+        <v>0</v>
       </c>
       <c r="AC70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1900</v>
       </c>
       <c r="O72" s="3">
         <v>-1900</v>
       </c>
       <c r="P72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1900</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>14600</v>
       </c>
       <c r="O76" s="3">
         <v>14600</v>
       </c>
       <c r="P76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>15400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18500</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
       </c>
       <c r="Z81" s="3">
         <v>-200</v>
       </c>
       <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6266,7 +6464,7 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -6289,14 +6487,17 @@
       <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
+      <c r="AB83" s="3">
+        <v>200</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-400</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="3" t="s">
-        <v>4</v>
+      <c r="AB89" s="3">
+        <v>0</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,58 +7043,59 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6884,11 +7104,11 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6899,16 +7119,19 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-200</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,38 +7299,41 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -7112,52 +7341,55 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>1100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>600</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7546,20 +7791,20 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7567,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
@@ -7594,16 +7839,19 @@
         <v>-100</v>
       </c>
       <c r="AA100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7679,93 +7927,99 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>4</v>
+      <c r="AB101" s="3">
+        <v>0</v>
       </c>
       <c r="AC101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>700</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BRRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>BRRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,226 +665,233 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>5900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1200</v>
       </c>
-      <c r="AC8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -896,31 +903,31 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>300</v>
@@ -938,7 +945,7 @@
         <v>300</v>
       </c>
       <c r="Y9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z9" s="3">
         <v>400</v>
@@ -947,102 +954,108 @@
         <v>400</v>
       </c>
       <c r="AB9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC9" s="3">
         <v>600</v>
       </c>
-      <c r="AC9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>5400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>600</v>
       </c>
-      <c r="AC10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,8 +1276,8 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1265,21 +1285,21 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1295,8 +1315,8 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1411,14 +1434,17 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-      <c r="AC15" s="3" t="s">
-        <v>4</v>
+      <c r="AC15" s="3">
+        <v>0</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1400</v>
       </c>
       <c r="U17" s="3">
         <v>1400</v>
       </c>
       <c r="V17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
       </c>
-      <c r="AC17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-200</v>
       </c>
       <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-600</v>
       </c>
-      <c r="AC18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,25 +1683,26 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1677,153 +1711,159 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>4300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1891,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3">
         <v>100</v>
@@ -1902,186 +1942,195 @@
       <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AC22" s="3" t="s">
-        <v>4</v>
+      <c r="AC22" s="3">
+        <v>100</v>
       </c>
       <c r="AD22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-300</v>
       </c>
       <c r="AA23" s="3">
         <v>-300</v>
       </c>
       <c r="AB23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-700</v>
       </c>
-      <c r="AC23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
-      </c>
-      <c r="W24" s="3">
-        <v>-100</v>
       </c>
       <c r="X24" s="3">
         <v>-100</v>
       </c>
       <c r="Y24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-200</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>-100</v>
       </c>
       <c r="AA24" s="3">
         <v>-100</v>
       </c>
       <c r="AB24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-200</v>
       </c>
-      <c r="AC24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
       <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
-      <c r="AC26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD26" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
       <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
-      <c r="AC27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2453,14 +2514,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2472,17 +2533,17 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>300</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2493,25 +2554,28 @@
         <v>0</v>
       </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-200</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>4</v>
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
       </c>
       <c r="AD29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,25 +2749,28 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2709,153 +2779,159 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>-100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
       </c>
       <c r="AD32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
       <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
       <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
-      <c r="AC35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>8100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2400</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3347,14 +3437,17 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>4</v>
+      <c r="AC42" s="3">
+        <v>0</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3365,16 +3458,16 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -3392,11 +3485,11 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -3404,43 +3497,46 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>500</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>200</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
       <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>300</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3519,14 +3615,17 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>4</v>
+      <c r="AC44" s="3">
+        <v>0</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3534,10 +3633,10 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -3546,37 +3645,37 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>300</v>
       </c>
       <c r="Q45" s="3">
         <v>300</v>
       </c>
       <c r="R45" s="3">
+        <v>300</v>
+      </c>
+      <c r="S45" s="3">
         <v>500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>300</v>
       </c>
       <c r="T45" s="3">
         <v>300</v>
@@ -3585,34 +3684,37 @@
         <v>300</v>
       </c>
       <c r="V45" s="3">
+        <v>300</v>
+      </c>
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>400</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>300</v>
       </c>
       <c r="AB45" s="3">
         <v>300</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
+      <c r="AC45" s="3">
+        <v>300</v>
       </c>
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3691,46 +3793,49 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>4</v>
+      <c r="AC46" s="3">
+        <v>0</v>
       </c>
       <c r="AD46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E47" s="3">
         <v>5000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2200</v>
       </c>
       <c r="H47" s="3">
         <v>2200</v>
       </c>
       <c r="I47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J47" s="3">
         <v>900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1000</v>
       </c>
       <c r="K47" s="3">
         <v>1000</v>
       </c>
       <c r="L47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="3">
         <v>1200</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1300</v>
       </c>
       <c r="N47" s="3">
         <v>1300</v>
@@ -3742,7 +3847,7 @@
         <v>1300</v>
       </c>
       <c r="Q47" s="3">
-        <v>2400</v>
+        <v>1300</v>
       </c>
       <c r="R47" s="3">
         <v>2400</v>
@@ -3751,7 +3856,7 @@
         <v>2400</v>
       </c>
       <c r="T47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="U47" s="3">
         <v>2600</v>
@@ -3760,31 +3865,34 @@
         <v>2600</v>
       </c>
       <c r="W47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X47" s="3">
         <v>3800</v>
-      </c>
-      <c r="X47" s="3">
-        <v>4000</v>
       </c>
       <c r="Y47" s="3">
         <v>4000</v>
       </c>
       <c r="Z47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="AA47" s="3">
         <v>4400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5500</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,37 +3903,37 @@
         <v>10700</v>
       </c>
       <c r="F48" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G48" s="3">
         <v>10500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>10700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>10500</v>
       </c>
       <c r="J48" s="3">
         <v>10500</v>
       </c>
       <c r="K48" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="L48" s="3">
         <v>10600</v>
       </c>
       <c r="M48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="N48" s="3">
         <v>10500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>10600</v>
       </c>
       <c r="O48" s="3">
         <v>10600</v>
       </c>
       <c r="P48" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="Q48" s="3">
         <v>10700</v>
@@ -3834,7 +3942,7 @@
         <v>10700</v>
       </c>
       <c r="S48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="T48" s="3">
         <v>10900</v>
@@ -3843,34 +3951,37 @@
         <v>10900</v>
       </c>
       <c r="V48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="W48" s="3">
         <v>20400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>20600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>20800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>20900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>21100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>21300</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3949,14 +4060,17 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>4</v>
+      <c r="AC49" s="3">
+        <v>0</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,29 +4244,32 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -4163,58 +4283,61 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1700</v>
-      </c>
-      <c r="S52" s="3">
-        <v>1600</v>
       </c>
       <c r="T52" s="3">
         <v>1600</v>
       </c>
       <c r="U52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V52" s="3">
         <v>10400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5800</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>1000</v>
       </c>
       <c r="Z52" s="3">
         <v>1000</v>
       </c>
       <c r="AA52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1100</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E54" s="3">
         <v>24700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>21600</v>
       </c>
       <c r="I54" s="3">
         <v>21600</v>
       </c>
       <c r="J54" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K54" s="3">
         <v>22500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>27000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>28100</v>
-      </c>
-      <c r="X54" s="3">
-        <v>28300</v>
       </c>
       <c r="Y54" s="3">
         <v>28300</v>
       </c>
       <c r="Z54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="AA54" s="3">
         <v>30000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>30700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>30900</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4458,7 +4589,7 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
@@ -4470,22 +4601,22 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -4494,49 +4625,52 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>300</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
       </c>
       <c r="W57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
       </c>
       <c r="Y57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>200</v>
       </c>
       <c r="AA57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
+      <c r="AC57" s="3">
+        <v>300</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4546,8 +4680,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4568,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>500</v>
@@ -4577,7 +4711,7 @@
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4595,16 +4729,16 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
       </c>
       <c r="X58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>300</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
@@ -4615,14 +4749,17 @@
       <c r="AB58" s="3">
         <v>300</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
+      <c r="AC58" s="3">
+        <v>300</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4633,82 +4770,85 @@
         <v>300</v>
       </c>
       <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>300</v>
+      </c>
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>5000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4800</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4787,14 +4927,17 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
+      <c r="AC60" s="3">
+        <v>0</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4844,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
@@ -4853,103 +4996,106 @@
         <v>100</v>
       </c>
       <c r="V61" s="3">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
         <v>6000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6400</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>6500</v>
       </c>
       <c r="AB61" s="3">
         <v>6500</v>
       </c>
       <c r="AC61" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>400</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
       </c>
       <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1700</v>
       </c>
       <c r="R62" s="3">
         <v>1700</v>
       </c>
       <c r="S62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T62" s="3">
         <v>2700</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>6200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
         <v>3100</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3400</v>
       </c>
       <c r="M66" s="3">
         <v>3400</v>
       </c>
       <c r="N66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12400</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5593,14 +5761,17 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-      <c r="AC70" s="3" t="s">
-        <v>4</v>
+      <c r="AC70" s="3">
+        <v>0</v>
       </c>
       <c r="AD70" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E72" s="3">
         <v>4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1900</v>
       </c>
       <c r="P72" s="3">
         <v>-1900</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1900</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E76" s="3">
         <v>22000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>14600</v>
       </c>
       <c r="P76" s="3">
         <v>14600</v>
       </c>
       <c r="Q76" s="3">
+        <v>14600</v>
+      </c>
+      <c r="R76" s="3">
         <v>15400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>17200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>17300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>18500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>18400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>18500</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
       <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
-      <c r="AC81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6467,7 +6666,7 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -6490,14 +6689,17 @@
       <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>4</v>
+      <c r="AC83" s="3">
+        <v>200</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>-400</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="3" t="s">
-        <v>4</v>
+      <c r="AC89" s="3">
+        <v>0</v>
       </c>
       <c r="AD89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,61 +7264,62 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -7107,11 +7328,11 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
@@ -7122,16 +7343,19 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-200</v>
       </c>
-      <c r="AC91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,41 +7529,44 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -7344,52 +7574,55 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>900</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>1100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>600</v>
       </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7794,20 +8040,20 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7815,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
@@ -7842,16 +8088,19 @@
         <v>-100</v>
       </c>
       <c r="AB100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7930,96 +8179,102 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>4</v>
+      <c r="AC101" s="3">
+        <v>0</v>
       </c>
       <c r="AD101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>700</v>
       </c>
-      <c r="AC102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
